--- a/Excel/Base_Empresarial.xlsx
+++ b/Excel/Base_Empresarial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Coisas Importantes\Faculdade\GitHub\Faculdade Geral\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9E157-2B3B-4C39-9F9A-59475A45A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D088C0B3-A76C-467D-9B92-4D64408A482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9CFA1CB4-7B0A-496C-BA42-5FC20977DBE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CFA1CB4-7B0A-496C-BA42-5FC20977DBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -290,15 +290,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -317,6 +316,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,19 +658,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5858A741-3870-4283-A02C-892803545E5D}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -689,12 +694,12 @@
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -709,10 +714,10 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -727,7 +732,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -736,7 +741,7 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
@@ -753,10 +758,10 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -771,10 +776,10 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -789,10 +794,10 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -807,7 +812,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -816,7 +821,7 @@
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
@@ -833,16 +838,16 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="3">
         <f>B5*B9</f>
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f>(C5*B9)+D6</f>
+        <f>(C5*B9)+D5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>C9-D9</f>
         <v>0</v>
       </c>
@@ -860,10 +865,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -878,10 +883,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -896,7 +901,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -905,7 +910,7 @@
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1"/>
@@ -922,17 +927,17 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="22">
         <f>IF(OR(C5=0,B5=0),0,D5/(B5-C5))</f>
         <v>0</v>
       </c>
-      <c r="D13" s="5">
-        <f>(B5*E5)-(C5*E5)-D5</f>
+      <c r="D13" s="4">
+        <f>(B5*E5*30)-(C5*E5*30)-D5</f>
         <v>0</v>
       </c>
-      <c r="E13" s="15">
-        <f>IF(OR(B5=0,C5=0),0,B13-D5/(B5-C5))</f>
+      <c r="E13" s="14">
+        <f>IF(OR(B5=0,C5=0),0,(B13-D5)/(B5-C5))</f>
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
@@ -949,10 +954,10 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1021,7 +1026,6 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1056,8 +1060,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1074,8 +1077,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1092,13 +1094,8 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1110,8 +1107,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1128,8 +1124,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1146,8 +1141,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1164,8 +1158,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1182,8 +1175,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1200,8 +1192,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1218,8 +1209,7 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1236,8 +1226,7 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1254,8 +1243,7 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1272,8 +1260,7 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1290,8 +1277,7 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1308,8 +1294,7 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1326,8 +1311,7 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1344,8 +1328,7 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1362,8 +1345,7 @@
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1379,7 +1361,142 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:B45">
+    <sortCondition ref="B21:B45"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
